--- a/level-3/codeforces-phase-3-div3-contests/codeforces-phase-3-div3-contests.xlsx
+++ b/level-3/codeforces-phase-3-div3-contests/codeforces-phase-3-div3-contests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7E721-A28F-4BAD-B3BA-51E9E1843070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF1FF6-F9E0-4E8D-A897-DDB41C2FE4D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Contest Link</t>
   </si>
@@ -203,6 +203,33 @@
   </si>
   <si>
     <t xml:space="preserve">Round Number </t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1472</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1475</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1490</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1506</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1512</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1520</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1538</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1547</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1551</t>
   </si>
 </sst>
 </file>
@@ -405,11 +432,8 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -417,22 +441,18 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -1098,16 +1118,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -1130,13 +1150,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="4">
         <f>COUNTA(B3:B893)</f>
-        <v>51</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="11" t="e">
         <f t="shared" ref="E2:J2" si="0">AVERAGE(E3:E181)</f>
         <v>#DIV/0!</v>
@@ -1179,7 +1199,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="12">
-        <f>SUM(E3:I3)</f>
+        <f t="shared" ref="J3:J34" si="1">SUM(E3:I3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1200,7 +1220,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="12">
-        <f>SUM(E4:I4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1221,7 +1241,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="12">
-        <f>SUM(E5:I5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1242,7 +1262,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="12">
-        <f>SUM(E6:I6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +1283,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="12">
-        <f>SUM(E7:I7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1284,7 +1304,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12">
-        <f>SUM(E8:I8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1305,7 +1325,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="12">
-        <f>SUM(E9:I9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1326,7 +1346,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="12">
-        <f>SUM(E10:I10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1347,7 +1367,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="12">
-        <f>SUM(E11:I11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1368,7 +1388,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12">
-        <f>SUM(E12:I12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1389,7 +1409,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="12">
-        <f>SUM(E13:I13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1410,7 +1430,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="12">
-        <f>SUM(E14:I14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1431,7 +1451,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="12">
-        <f>SUM(E15:I15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1452,7 +1472,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="12">
-        <f>SUM(E16:I16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1473,7 +1493,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="12">
-        <f>SUM(E17:I17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1494,7 +1514,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="12">
-        <f>SUM(E18:I18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1515,7 +1535,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="12">
-        <f>SUM(E19:I19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1536,7 +1556,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="12">
-        <f>SUM(E20:I20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1557,7 +1577,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="12">
-        <f>SUM(E21:I21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1598,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="12">
-        <f>SUM(E22:I22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1599,7 +1619,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="12">
-        <f>SUM(E23:I23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1620,7 +1640,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="12">
-        <f>SUM(E24:I24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1641,7 +1661,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="12">
-        <f>SUM(E25:I25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1662,7 +1682,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="12">
-        <f>SUM(E26:I26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,7 +1703,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="12">
-        <f>SUM(E27:I27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1704,7 +1724,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="12">
-        <f>SUM(E28:I28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1725,7 +1745,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="12">
-        <f>SUM(E29:I29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1746,7 +1766,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="12">
-        <f>SUM(E30:I30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1767,7 +1787,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="12">
-        <f>SUM(E31:I31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1788,7 +1808,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="12">
-        <f>SUM(E32:I32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1809,7 +1829,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="12">
-        <f>SUM(E33:I33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1830,7 +1850,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="12">
-        <f>SUM(E34:I34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1851,7 +1871,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="12">
-        <f>SUM(E35:I35)</f>
+        <f t="shared" ref="J35:J62" si="2">SUM(E35:I35)</f>
         <v>0</v>
       </c>
     </row>
@@ -1872,7 +1892,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="12">
-        <f>SUM(E36:I36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1893,7 +1913,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="12">
-        <f>SUM(E37:I37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1914,7 +1934,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="12">
-        <f>SUM(E38:I38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1935,7 +1955,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="12">
-        <f>SUM(E39:I39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1956,7 +1976,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="12">
-        <f>SUM(E40:I40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1977,7 +1997,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="12">
-        <f>SUM(E41:I41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1998,7 +2018,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="12">
-        <f>SUM(E42:I42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2019,7 +2039,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="12">
-        <f>SUM(E43:I43)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2040,7 +2060,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="12">
-        <f>SUM(E44:I44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2061,7 +2081,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="12">
-        <f>SUM(E45:I45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2082,7 +2102,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="12">
-        <f>SUM(E46:I46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2103,7 +2123,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="12">
-        <f>SUM(E47:I47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2144,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="12">
-        <f>SUM(E48:I48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2145,7 +2165,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="12">
-        <f>SUM(E49:I49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2166,7 +2186,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="12">
-        <f>SUM(E50:I50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2187,7 +2207,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="12">
-        <f>SUM(E51:I51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2208,7 +2228,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="12">
-        <f>SUM(E52:I52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2229,117 +2249,198 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="12">
-        <f>SUM(E53:I53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="13">
+        <v>693</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="12">
+        <v>2</v>
+      </c>
       <c r="D54" s="13"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="13">
+        <v>697</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="12">
+        <v>2</v>
+      </c>
       <c r="D55" s="12"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="13">
+        <v>702</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="12">
+        <v>2</v>
+      </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="12"/>
+      <c r="J56" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="13">
+        <v>710</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="12">
+        <v>2</v>
+      </c>
       <c r="D57" s="12"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="12"/>
+      <c r="J57" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="13">
+        <v>713</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="12">
+        <v>2</v>
+      </c>
       <c r="D58" s="12"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="13">
+        <v>719</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2</v>
+      </c>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="12"/>
+      <c r="J59" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="13">
+        <v>725</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
       <c r="D60" s="12"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="12"/>
+      <c r="J60" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="13">
+        <v>731</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2</v>
+      </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
-      <c r="J61" s="12"/>
+      <c r="J61" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="13">
+        <v>734</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="12">
+        <v>2</v>
+      </c>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
@@ -4010,7 +4111,7 @@
       <c r="J201" s="15"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="23"/>
+      <c r="A202" s="19"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J53">
@@ -4021,43 +4122,43 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A13:A24 B5:B24 A72:B72 A66:A69 A114:A128 A71 A70:B70 A25:B64 A129:B160 A4:B4 A73:A112 B65:B170 B3">
-    <cfRule type="cellIs" dxfId="53" priority="162" operator="equal">
+  <conditionalFormatting sqref="A13:A24 B5:B24 A72:B72 A66:A69 A114:A128 A71 A70:B70 A129:B160 A4:B4 A73:A112 B65:B170 B3 A25:B64">
+    <cfRule type="cellIs" dxfId="52" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203:A1048576">
-    <cfRule type="cellIs" dxfId="52" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="cellIs" dxfId="51" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="120" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165:A201 B171:C201">
-    <cfRule type="cellIs" dxfId="50" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="49" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B12">
-    <cfRule type="cellIs" dxfId="48" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="47" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="cellIs" dxfId="46" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
